--- a/data/cameratrap/porsanger/manual/G6_2020_aug_nov.xlsx
+++ b/data/cameratrap/porsanger/manual/G6_2020_aug_nov.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Eivind\GitProjects\OccupancyAbundanceCalibration\data\cameratrap\porsanger\manual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C32E2787-74D8-457F-9338-4ABF4590AB5A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52AC9A3A-E3F7-4EEF-84D4-698338BAF923}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28770" yWindow="0" windowWidth="24030" windowHeight="13530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="G6_2020_aug_nov" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="357">
   <si>
-    <t>Image Name</t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
@@ -1102,6 +1099,9 @@
   </si>
   <si>
     <t>Temp_C</t>
+  </si>
+  <si>
+    <t>ImageName</t>
   </si>
 </sst>
 </file>
@@ -1913,9 +1913,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I341"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" activeCellId="3" sqref="B1:B1048576 K1:K1048576 L1:L1048576 M1:M1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1924,42 +1922,42 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>354</v>
+      </c>
+      <c r="G1" t="s">
+        <v>355</v>
+      </c>
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>355</v>
-      </c>
-      <c r="G1" t="s">
-        <v>356</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1">
         <v>44046</v>
@@ -1975,21 +1973,21 @@
         <v>11.111111111111111</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1">
         <v>44046</v>
@@ -2005,21 +2003,21 @@
         <v>11.111111111111111</v>
       </c>
       <c r="H3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1">
         <v>44046</v>
@@ -2035,21 +2033,21 @@
         <v>10.555555555555555</v>
       </c>
       <c r="H4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1">
         <v>44046</v>
@@ -2065,21 +2063,21 @@
         <v>10.555555555555555</v>
       </c>
       <c r="H5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="1">
         <v>44046</v>
@@ -2095,21 +2093,21 @@
         <v>10.555555555555555</v>
       </c>
       <c r="H6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1">
         <v>44046</v>
@@ -2125,21 +2123,21 @@
         <v>10.555555555555555</v>
       </c>
       <c r="H7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="1">
         <v>44046</v>
@@ -2155,21 +2153,21 @@
         <v>10.555555555555555</v>
       </c>
       <c r="H8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" s="1">
         <v>44046</v>
@@ -2185,21 +2183,21 @@
         <v>10.555555555555555</v>
       </c>
       <c r="H9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
         <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
       </c>
       <c r="D10" s="1">
         <v>44047</v>
@@ -2215,18 +2213,18 @@
         <v>10.555555555555555</v>
       </c>
       <c r="H10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" s="1">
         <v>44047</v>
@@ -2242,21 +2240,21 @@
         <v>10</v>
       </c>
       <c r="H11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" s="1">
         <v>44047</v>
@@ -2272,21 +2270,21 @@
         <v>10</v>
       </c>
       <c r="H12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" s="1">
         <v>44047</v>
@@ -2302,21 +2300,21 @@
         <v>10.555555555555555</v>
       </c>
       <c r="H13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" s="1">
         <v>44047</v>
@@ -2332,18 +2330,18 @@
         <v>10.555555555555555</v>
       </c>
       <c r="H14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" s="1">
         <v>44047</v>
@@ -2359,18 +2357,18 @@
         <v>17.222222222222221</v>
       </c>
       <c r="H15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D16" s="1">
         <v>44047</v>
@@ -2386,21 +2384,21 @@
         <v>12.777777777777777</v>
       </c>
       <c r="H16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17" s="1">
         <v>44047</v>
@@ -2416,21 +2414,21 @@
         <v>12.777777777777777</v>
       </c>
       <c r="H17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D18" s="1">
         <v>44048</v>
@@ -2446,18 +2444,18 @@
         <v>11.666666666666666</v>
       </c>
       <c r="H18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D19" s="1">
         <v>44048</v>
@@ -2473,21 +2471,21 @@
         <v>11.111111111111111</v>
       </c>
       <c r="H19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D20" s="1">
         <v>44048</v>
@@ -2503,21 +2501,21 @@
         <v>11.111111111111111</v>
       </c>
       <c r="H20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D21" s="1">
         <v>44048</v>
@@ -2533,21 +2531,21 @@
         <v>11.111111111111111</v>
       </c>
       <c r="H21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D22" s="1">
         <v>44048</v>
@@ -2563,18 +2561,18 @@
         <v>11.111111111111111</v>
       </c>
       <c r="H22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D23" s="1">
         <v>44048</v>
@@ -2590,21 +2588,21 @@
         <v>11.111111111111111</v>
       </c>
       <c r="H23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D24" s="1">
         <v>44048</v>
@@ -2620,18 +2618,18 @@
         <v>11.111111111111111</v>
       </c>
       <c r="H24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D25" s="1">
         <v>44048</v>
@@ -2647,18 +2645,18 @@
         <v>11.666666666666666</v>
       </c>
       <c r="H25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D26" s="1">
         <v>44049</v>
@@ -2674,18 +2672,18 @@
         <v>10.555555555555555</v>
       </c>
       <c r="H26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D27" s="1">
         <v>44049</v>
@@ -2701,18 +2699,18 @@
         <v>12.222222222222221</v>
       </c>
       <c r="H27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D28" s="1">
         <v>44049</v>
@@ -2728,21 +2726,21 @@
         <v>11.111111111111111</v>
       </c>
       <c r="H28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D29" s="1">
         <v>44049</v>
@@ -2758,21 +2756,21 @@
         <v>11.111111111111111</v>
       </c>
       <c r="H29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D30" s="1">
         <v>44050</v>
@@ -2788,18 +2786,18 @@
         <v>10.555555555555555</v>
       </c>
       <c r="H30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D31" s="1">
         <v>44050</v>
@@ -2815,18 +2813,18 @@
         <v>11.666666666666666</v>
       </c>
       <c r="H31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D32" s="1">
         <v>44051</v>
@@ -2842,18 +2840,18 @@
         <v>10</v>
       </c>
       <c r="H32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D33" s="1">
         <v>44051</v>
@@ -2869,18 +2867,18 @@
         <v>15.555555555555555</v>
       </c>
       <c r="H33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D34" s="1">
         <v>44051</v>
@@ -2896,18 +2894,18 @@
         <v>15.555555555555555</v>
       </c>
       <c r="H34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D35" s="1">
         <v>44051</v>
@@ -2923,21 +2921,21 @@
         <v>16.666666666666668</v>
       </c>
       <c r="H35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D36" s="1">
         <v>44051</v>
@@ -2953,18 +2951,18 @@
         <v>16.666666666666668</v>
       </c>
       <c r="H36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D37" s="1">
         <v>44051</v>
@@ -2980,18 +2978,18 @@
         <v>16.111111111111111</v>
       </c>
       <c r="H37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D38" s="1">
         <v>44051</v>
@@ -3007,21 +3005,21 @@
         <v>13.888888888888889</v>
       </c>
       <c r="H38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D39" s="1">
         <v>44051</v>
@@ -3037,18 +3035,18 @@
         <v>13.888888888888889</v>
       </c>
       <c r="H39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D40" s="1">
         <v>44052</v>
@@ -3064,18 +3062,18 @@
         <v>11.666666666666666</v>
       </c>
       <c r="H40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D41" s="1">
         <v>44052</v>
@@ -3091,21 +3089,21 @@
         <v>11.666666666666666</v>
       </c>
       <c r="H41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D42" s="1">
         <v>44052</v>
@@ -3121,21 +3119,21 @@
         <v>11.666666666666666</v>
       </c>
       <c r="H42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D43" s="1">
         <v>44052</v>
@@ -3151,18 +3149,18 @@
         <v>10.555555555555555</v>
       </c>
       <c r="H43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D44" s="1">
         <v>44052</v>
@@ -3178,21 +3176,21 @@
         <v>10.555555555555555</v>
       </c>
       <c r="H44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I44" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D45" s="1">
         <v>44052</v>
@@ -3208,18 +3206,18 @@
         <v>10.555555555555555</v>
       </c>
       <c r="H45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D46" s="1">
         <v>44052</v>
@@ -3235,21 +3233,21 @@
         <v>10.555555555555555</v>
       </c>
       <c r="H46" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I46" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D47" s="1">
         <v>44052</v>
@@ -3265,21 +3263,21 @@
         <v>10.555555555555555</v>
       </c>
       <c r="H47" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D48" s="1">
         <v>44053</v>
@@ -3295,18 +3293,18 @@
         <v>10</v>
       </c>
       <c r="H48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D49" s="1">
         <v>44053</v>
@@ -3322,18 +3320,18 @@
         <v>11.111111111111111</v>
       </c>
       <c r="H49" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D50" s="1">
         <v>44053</v>
@@ -3349,21 +3347,21 @@
         <v>11.111111111111111</v>
       </c>
       <c r="H50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D51" s="1">
         <v>44053</v>
@@ -3379,21 +3377,21 @@
         <v>11.111111111111111</v>
       </c>
       <c r="H51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D52" s="1">
         <v>44053</v>
@@ -3409,21 +3407,21 @@
         <v>11.111111111111111</v>
       </c>
       <c r="H52" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D53" s="1">
         <v>44053</v>
@@ -3439,21 +3437,21 @@
         <v>11.111111111111111</v>
       </c>
       <c r="H53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I53" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D54" s="1">
         <v>44054</v>
@@ -3469,18 +3467,18 @@
         <v>9.4444444444444446</v>
       </c>
       <c r="H54" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D55" s="1">
         <v>44054</v>
@@ -3496,18 +3494,18 @@
         <v>11.111111111111111</v>
       </c>
       <c r="H55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D56" s="1">
         <v>44054</v>
@@ -3523,21 +3521,21 @@
         <v>10.555555555555555</v>
       </c>
       <c r="H56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I56" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D57" s="1">
         <v>44054</v>
@@ -3553,18 +3551,18 @@
         <v>10.555555555555555</v>
       </c>
       <c r="H57" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D58" s="1">
         <v>44055</v>
@@ -3580,18 +3578,18 @@
         <v>10</v>
       </c>
       <c r="H58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D59" s="1">
         <v>44055</v>
@@ -3607,18 +3605,18 @@
         <v>12.222222222222221</v>
       </c>
       <c r="H59" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D60" s="1">
         <v>44056</v>
@@ -3634,18 +3632,18 @@
         <v>9.4444444444444446</v>
       </c>
       <c r="H60" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D61" s="1">
         <v>44056</v>
@@ -3661,18 +3659,18 @@
         <v>16.666666666666668</v>
       </c>
       <c r="H61" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D62" s="1">
         <v>44057</v>
@@ -3688,18 +3686,18 @@
         <v>11.111111111111111</v>
       </c>
       <c r="H62" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D63" s="1">
         <v>44057</v>
@@ -3715,18 +3713,18 @@
         <v>12.222222222222221</v>
       </c>
       <c r="H63" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D64" s="1">
         <v>44075</v>
@@ -3742,18 +3740,18 @@
         <v>8.3333333333333339</v>
       </c>
       <c r="H64" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D65" s="1">
         <v>44075</v>
@@ -3769,18 +3767,18 @@
         <v>8.8888888888888893</v>
       </c>
       <c r="H65" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D66" s="1">
         <v>44076</v>
@@ -3796,18 +3794,18 @@
         <v>8.8888888888888893</v>
       </c>
       <c r="H66" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D67" s="1">
         <v>44076</v>
@@ -3823,21 +3821,21 @@
         <v>8.8888888888888893</v>
       </c>
       <c r="H67" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I67" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D68" s="1">
         <v>44076</v>
@@ -3853,21 +3851,21 @@
         <v>8.8888888888888893</v>
       </c>
       <c r="H68" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I68" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D69" s="1">
         <v>44076</v>
@@ -3883,18 +3881,18 @@
         <v>13.888888888888889</v>
       </c>
       <c r="H69" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D70" s="1">
         <v>44077</v>
@@ -3910,18 +3908,18 @@
         <v>10</v>
       </c>
       <c r="H70" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D71" s="1">
         <v>44077</v>
@@ -3937,18 +3935,18 @@
         <v>15</v>
       </c>
       <c r="H71" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D72" s="1">
         <v>44077</v>
@@ -3964,21 +3962,21 @@
         <v>13.333333333333332</v>
       </c>
       <c r="H72" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I72" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D73" s="1">
         <v>44077</v>
@@ -3994,18 +3992,18 @@
         <v>13.333333333333332</v>
       </c>
       <c r="H73" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D74" s="1">
         <v>44078</v>
@@ -4021,21 +4019,21 @@
         <v>11.111111111111111</v>
       </c>
       <c r="H74" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I74" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D75" s="1">
         <v>44078</v>
@@ -4051,18 +4049,18 @@
         <v>11.111111111111111</v>
       </c>
       <c r="H75" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C76" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D76" s="1">
         <v>44078</v>
@@ -4078,18 +4076,18 @@
         <v>11.111111111111111</v>
       </c>
       <c r="H76" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D77" s="1">
         <v>44078</v>
@@ -4105,21 +4103,21 @@
         <v>10.555555555555555</v>
       </c>
       <c r="H77" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I77" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D78" s="1">
         <v>44078</v>
@@ -4135,21 +4133,21 @@
         <v>10.555555555555555</v>
       </c>
       <c r="H78" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C79" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D79" s="1">
         <v>44078</v>
@@ -4165,18 +4163,18 @@
         <v>11.666666666666666</v>
       </c>
       <c r="H79" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D80" s="1">
         <v>44078</v>
@@ -4192,21 +4190,21 @@
         <v>12.222222222222221</v>
       </c>
       <c r="H80" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I80" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C81" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D81" s="1">
         <v>44078</v>
@@ -4222,18 +4220,18 @@
         <v>12.222222222222221</v>
       </c>
       <c r="H81" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D82" s="1">
         <v>44078</v>
@@ -4249,21 +4247,21 @@
         <v>12.222222222222221</v>
       </c>
       <c r="H82" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I82" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C83" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D83" s="1">
         <v>44078</v>
@@ -4279,21 +4277,21 @@
         <v>12.222222222222221</v>
       </c>
       <c r="H83" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I83" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D84" s="1">
         <v>44078</v>
@@ -4309,21 +4307,21 @@
         <v>11.666666666666666</v>
       </c>
       <c r="H84" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I84" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C85" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D85" s="1">
         <v>44078</v>
@@ -4339,18 +4337,18 @@
         <v>11.666666666666666</v>
       </c>
       <c r="H85" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D86" s="1">
         <v>44078</v>
@@ -4366,21 +4364,21 @@
         <v>11.111111111111111</v>
       </c>
       <c r="H86" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I86" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C87" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D87" s="1">
         <v>44078</v>
@@ -4396,18 +4394,18 @@
         <v>11.111111111111111</v>
       </c>
       <c r="H87" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C88" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D88" s="1">
         <v>44079</v>
@@ -4423,18 +4421,18 @@
         <v>11.111111111111111</v>
       </c>
       <c r="H88" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D89" s="1">
         <v>44079</v>
@@ -4450,21 +4448,21 @@
         <v>11.111111111111111</v>
       </c>
       <c r="H89" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I89" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C90" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D90" s="1">
         <v>44079</v>
@@ -4480,21 +4478,21 @@
         <v>11.111111111111111</v>
       </c>
       <c r="H90" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I90" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D91" s="1">
         <v>44079</v>
@@ -4510,21 +4508,21 @@
         <v>11.111111111111111</v>
       </c>
       <c r="H91" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I91" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C92" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D92" s="1">
         <v>44079</v>
@@ -4540,18 +4538,18 @@
         <v>11.111111111111111</v>
       </c>
       <c r="H92" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D93" s="1">
         <v>44079</v>
@@ -4567,18 +4565,18 @@
         <v>11.666666666666666</v>
       </c>
       <c r="H93" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C94" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D94" s="1">
         <v>44079</v>
@@ -4594,18 +4592,18 @@
         <v>11.666666666666666</v>
       </c>
       <c r="H94" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C95" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D95" s="1">
         <v>44079</v>
@@ -4621,18 +4619,18 @@
         <v>12.222222222222221</v>
       </c>
       <c r="H95" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D96" s="1">
         <v>44079</v>
@@ -4648,21 +4646,21 @@
         <v>11.666666666666666</v>
       </c>
       <c r="H96" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I96" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C97" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D97" s="1">
         <v>44079</v>
@@ -4678,18 +4676,18 @@
         <v>11.666666666666666</v>
       </c>
       <c r="H97" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C98" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D98" s="1">
         <v>44080</v>
@@ -4705,18 +4703,18 @@
         <v>11.111111111111111</v>
       </c>
       <c r="H98" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D99" s="1">
         <v>44080</v>
@@ -4732,21 +4730,21 @@
         <v>10</v>
       </c>
       <c r="H99" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I99" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C100" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D100" s="1">
         <v>44080</v>
@@ -4762,18 +4760,18 @@
         <v>10</v>
       </c>
       <c r="H100" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C101" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D101" s="1">
         <v>44080</v>
@@ -4789,18 +4787,18 @@
         <v>12.777777777777777</v>
       </c>
       <c r="H101" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D102" s="1">
         <v>44080</v>
@@ -4816,21 +4814,21 @@
         <v>10.555555555555555</v>
       </c>
       <c r="H102" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I102" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C103" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D103" s="1">
         <v>44080</v>
@@ -4846,21 +4844,21 @@
         <v>10.555555555555555</v>
       </c>
       <c r="H103" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I103" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C104" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D104" s="1">
         <v>44081</v>
@@ -4876,18 +4874,18 @@
         <v>10</v>
       </c>
       <c r="H104" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D105" s="1">
         <v>44081</v>
@@ -4903,21 +4901,21 @@
         <v>9.4444444444444446</v>
       </c>
       <c r="H105" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I105" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C106" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D106" s="1">
         <v>44081</v>
@@ -4933,21 +4931,21 @@
         <v>9.4444444444444446</v>
       </c>
       <c r="H106" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I106" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D107" s="1">
         <v>44081</v>
@@ -4963,21 +4961,21 @@
         <v>10.555555555555555</v>
       </c>
       <c r="H107" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I107" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C108" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D108" s="1">
         <v>44081</v>
@@ -4993,18 +4991,18 @@
         <v>10.555555555555555</v>
       </c>
       <c r="H108" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C109" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D109" s="1">
         <v>44081</v>
@@ -5020,18 +5018,18 @@
         <v>10.555555555555555</v>
       </c>
       <c r="H109" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D110" s="1">
         <v>44081</v>
@@ -5047,21 +5045,21 @@
         <v>11.111111111111111</v>
       </c>
       <c r="H110" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I110" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C111" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D111" s="1">
         <v>44081</v>
@@ -5077,18 +5075,18 @@
         <v>11.111111111111111</v>
       </c>
       <c r="H111" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C112" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D112" s="1">
         <v>44082</v>
@@ -5104,18 +5102,18 @@
         <v>8.8888888888888893</v>
       </c>
       <c r="H112" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C113" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D113" s="1">
         <v>44082</v>
@@ -5131,18 +5129,18 @@
         <v>12.777777777777777</v>
       </c>
       <c r="H113" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D114" s="1">
         <v>44082</v>
@@ -5158,21 +5156,21 @@
         <v>11.111111111111111</v>
       </c>
       <c r="H114" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I114" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C115" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D115" s="1">
         <v>44082</v>
@@ -5188,18 +5186,18 @@
         <v>11.111111111111111</v>
       </c>
       <c r="H115" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C116" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D116" s="1">
         <v>44083</v>
@@ -5215,18 +5213,18 @@
         <v>10</v>
       </c>
       <c r="H116" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C117" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D117" s="1">
         <v>44083</v>
@@ -5242,18 +5240,18 @@
         <v>10</v>
       </c>
       <c r="H117" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D118" s="1">
         <v>44083</v>
@@ -5269,21 +5267,21 @@
         <v>8.3333333333333339</v>
       </c>
       <c r="H118" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I118" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C119" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D119" s="1">
         <v>44083</v>
@@ -5299,21 +5297,21 @@
         <v>8.3333333333333339</v>
       </c>
       <c r="H119" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I119" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C120" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D120" s="1">
         <v>44084</v>
@@ -5329,18 +5327,18 @@
         <v>8.3333333333333339</v>
       </c>
       <c r="H120" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D121" s="1">
         <v>44084</v>
@@ -5356,21 +5354,21 @@
         <v>8.3333333333333339</v>
       </c>
       <c r="H121" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I121" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C122" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D122" s="1">
         <v>44084</v>
@@ -5386,18 +5384,18 @@
         <v>8.3333333333333339</v>
       </c>
       <c r="H122" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D123" s="1">
         <v>44084</v>
@@ -5413,18 +5411,18 @@
         <v>8.8888888888888893</v>
       </c>
       <c r="H123" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C124" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D124" s="1">
         <v>44084</v>
@@ -5440,18 +5438,18 @@
         <v>8.8888888888888893</v>
       </c>
       <c r="H124" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C125" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D125" s="1">
         <v>44084</v>
@@ -5467,18 +5465,18 @@
         <v>9.4444444444444446</v>
       </c>
       <c r="H125" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D126" s="1">
         <v>44084</v>
@@ -5494,21 +5492,21 @@
         <v>10</v>
       </c>
       <c r="H126" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I126" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C127" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D127" s="1">
         <v>44084</v>
@@ -5524,21 +5522,21 @@
         <v>10</v>
       </c>
       <c r="H127" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I127" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D128" s="1">
         <v>44084</v>
@@ -5554,21 +5552,21 @@
         <v>10</v>
       </c>
       <c r="H128" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I128" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C129" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D129" s="1">
         <v>44084</v>
@@ -5584,18 +5582,18 @@
         <v>10</v>
       </c>
       <c r="H129" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D130" s="1">
         <v>44084</v>
@@ -5611,21 +5609,21 @@
         <v>10</v>
       </c>
       <c r="H130" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I130" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C131" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D131" s="1">
         <v>44084</v>
@@ -5641,18 +5639,18 @@
         <v>10</v>
       </c>
       <c r="H131" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D132" s="1">
         <v>44084</v>
@@ -5668,21 +5666,21 @@
         <v>9.4444444444444446</v>
       </c>
       <c r="H132" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I132" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C133" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D133" s="1">
         <v>44084</v>
@@ -5698,21 +5696,21 @@
         <v>9.4444444444444446</v>
       </c>
       <c r="H133" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I133" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D134" s="1">
         <v>44084</v>
@@ -5728,21 +5726,21 @@
         <v>8.8888888888888893</v>
       </c>
       <c r="H134" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I134" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C135" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D135" s="1">
         <v>44084</v>
@@ -5758,21 +5756,21 @@
         <v>8.8888888888888893</v>
       </c>
       <c r="H135" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I135" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D136" s="1">
         <v>44084</v>
@@ -5788,21 +5786,21 @@
         <v>8.8888888888888893</v>
       </c>
       <c r="H136" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I136" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C137" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D137" s="1">
         <v>44084</v>
@@ -5818,21 +5816,21 @@
         <v>8.8888888888888893</v>
       </c>
       <c r="H137" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I137" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C138" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D138" s="1">
         <v>44085</v>
@@ -5848,18 +5846,18 @@
         <v>7.2222222222222223</v>
       </c>
       <c r="H138" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D139" s="1">
         <v>44085</v>
@@ -5875,21 +5873,21 @@
         <v>7.7777777777777777</v>
       </c>
       <c r="H139" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I139" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C140" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D140" s="1">
         <v>44085</v>
@@ -5905,18 +5903,18 @@
         <v>7.7777777777777777</v>
       </c>
       <c r="H140" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D141" s="1">
         <v>44085</v>
@@ -5932,21 +5930,21 @@
         <v>7.2222222222222223</v>
       </c>
       <c r="H141" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I141" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C142" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D142" s="1">
         <v>44085</v>
@@ -5962,18 +5960,18 @@
         <v>7.2222222222222223</v>
       </c>
       <c r="H142" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D143" s="1">
         <v>44085</v>
@@ -5989,21 +5987,21 @@
         <v>7.2222222222222223</v>
       </c>
       <c r="H143" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I143" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C144" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D144" s="1">
         <v>44085</v>
@@ -6019,18 +6017,18 @@
         <v>7.2222222222222223</v>
       </c>
       <c r="H144" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D145" s="1">
         <v>44085</v>
@@ -6046,21 +6044,21 @@
         <v>10</v>
       </c>
       <c r="H145" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I145" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C146" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D146" s="1">
         <v>44085</v>
@@ -6076,18 +6074,18 @@
         <v>10</v>
       </c>
       <c r="H146" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C147" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D147" s="1">
         <v>44085</v>
@@ -6103,18 +6101,18 @@
         <v>10</v>
       </c>
       <c r="H147" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D148" s="1">
         <v>44085</v>
@@ -6130,21 +6128,21 @@
         <v>10</v>
       </c>
       <c r="H148" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I148" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C149" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D149" s="1">
         <v>44085</v>
@@ -6160,21 +6158,21 @@
         <v>10</v>
       </c>
       <c r="H149" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I149" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D150" s="1">
         <v>44085</v>
@@ -6190,21 +6188,21 @@
         <v>10</v>
       </c>
       <c r="H150" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I150" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C151" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D151" s="1">
         <v>44085</v>
@@ -6220,18 +6218,18 @@
         <v>10</v>
       </c>
       <c r="H151" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D152" s="1">
         <v>44085</v>
@@ -6247,21 +6245,21 @@
         <v>10</v>
       </c>
       <c r="H152" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I152" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C153" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D153" s="1">
         <v>44085</v>
@@ -6277,18 +6275,18 @@
         <v>10</v>
       </c>
       <c r="H153" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D154" s="1">
         <v>44085</v>
@@ -6304,21 +6302,21 @@
         <v>10</v>
       </c>
       <c r="H154" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I154" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C155" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D155" s="1">
         <v>44085</v>
@@ -6334,18 +6332,18 @@
         <v>10</v>
       </c>
       <c r="H155" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D156" s="1">
         <v>44085</v>
@@ -6361,21 +6359,21 @@
         <v>9.4444444444444446</v>
       </c>
       <c r="H156" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I156" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C157" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D157" s="1">
         <v>44085</v>
@@ -6391,21 +6389,21 @@
         <v>9.4444444444444446</v>
       </c>
       <c r="H157" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I157" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D158" s="1">
         <v>44085</v>
@@ -6421,21 +6419,21 @@
         <v>8.8888888888888893</v>
       </c>
       <c r="H158" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I158" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C159" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D159" s="1">
         <v>44085</v>
@@ -6451,18 +6449,18 @@
         <v>8.8888888888888893</v>
       </c>
       <c r="H159" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C160" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D160" s="1">
         <v>44086</v>
@@ -6478,18 +6476,18 @@
         <v>7.2222222222222223</v>
       </c>
       <c r="H160" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D161" s="1">
         <v>44086</v>
@@ -6505,21 +6503,21 @@
         <v>6.6666666666666661</v>
       </c>
       <c r="H161" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I161" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C162" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D162" s="1">
         <v>44086</v>
@@ -6535,18 +6533,18 @@
         <v>6.6666666666666661</v>
       </c>
       <c r="H162" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C163" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D163" s="1">
         <v>44086</v>
@@ -6562,18 +6560,18 @@
         <v>10</v>
       </c>
       <c r="H163" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D164" s="1">
         <v>44086</v>
@@ -6589,21 +6587,21 @@
         <v>8.3333333333333339</v>
       </c>
       <c r="H164" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I164" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C165" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D165" s="1">
         <v>44086</v>
@@ -6619,18 +6617,18 @@
         <v>8.3333333333333339</v>
       </c>
       <c r="H165" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D166" s="1">
         <v>44086</v>
@@ -6646,21 +6644,21 @@
         <v>8.3333333333333339</v>
       </c>
       <c r="H166" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I166" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C167" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D167" s="1">
         <v>44086</v>
@@ -6676,21 +6674,21 @@
         <v>8.3333333333333339</v>
       </c>
       <c r="H167" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I167" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D168" s="1">
         <v>44086</v>
@@ -6706,21 +6704,21 @@
         <v>8.3333333333333339</v>
       </c>
       <c r="H168" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I168" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C169" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D169" s="1">
         <v>44086</v>
@@ -6736,21 +6734,21 @@
         <v>8.3333333333333339</v>
       </c>
       <c r="H169" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I169" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C170" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D170" s="1">
         <v>44087</v>
@@ -6766,18 +6764,18 @@
         <v>7.7777777777777777</v>
       </c>
       <c r="H170" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C171" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D171" s="1">
         <v>44087</v>
@@ -6793,18 +6791,18 @@
         <v>9.4444444444444446</v>
       </c>
       <c r="H171" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D172" s="1">
         <v>44087</v>
@@ -6820,21 +6818,21 @@
         <v>9.4444444444444446</v>
       </c>
       <c r="H172" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I172" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C173" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D173" s="1">
         <v>44087</v>
@@ -6850,21 +6848,21 @@
         <v>9.4444444444444446</v>
       </c>
       <c r="H173" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I173" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D174" s="1">
         <v>44087</v>
@@ -6880,18 +6878,18 @@
         <v>9.4444444444444446</v>
       </c>
       <c r="H174" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C175" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D175" s="1">
         <v>44087</v>
@@ -6907,18 +6905,18 @@
         <v>9.4444444444444446</v>
       </c>
       <c r="H175" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D176" s="1">
         <v>44087</v>
@@ -6934,21 +6932,21 @@
         <v>9.4444444444444446</v>
       </c>
       <c r="H176" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I176" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C177" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D177" s="1">
         <v>44087</v>
@@ -6964,18 +6962,18 @@
         <v>9.4444444444444446</v>
       </c>
       <c r="H177" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C178" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D178" s="1">
         <v>44087</v>
@@ -6991,21 +6989,21 @@
         <v>8.3333333333333339</v>
       </c>
       <c r="H178" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I178" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C179" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D179" s="1">
         <v>44087</v>
@@ -7021,18 +7019,18 @@
         <v>8.3333333333333339</v>
       </c>
       <c r="H179" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C180" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D180" s="1">
         <v>44088</v>
@@ -7048,18 +7046,18 @@
         <v>7.2222222222222223</v>
       </c>
       <c r="H180" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C181" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D181" s="1">
         <v>44088</v>
@@ -7075,18 +7073,18 @@
         <v>7.7777777777777777</v>
       </c>
       <c r="H181" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C182" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D182" s="1">
         <v>44088</v>
@@ -7102,18 +7100,18 @@
         <v>7.7777777777777777</v>
       </c>
       <c r="H182" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C183" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D183" s="1">
         <v>44088</v>
@@ -7129,18 +7127,18 @@
         <v>8.3333333333333339</v>
       </c>
       <c r="H183" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C184" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D184" s="1">
         <v>44089</v>
@@ -7156,18 +7154,18 @@
         <v>7.2222222222222223</v>
       </c>
       <c r="H184" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C185" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D185" s="1">
         <v>44089</v>
@@ -7183,21 +7181,21 @@
         <v>7.2222222222222223</v>
       </c>
       <c r="H185" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I185" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C186" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D186" s="1">
         <v>44089</v>
@@ -7213,21 +7211,21 @@
         <v>7.2222222222222223</v>
       </c>
       <c r="H186" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I186" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C187" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D187" s="1">
         <v>44089</v>
@@ -7243,21 +7241,21 @@
         <v>7.2222222222222223</v>
       </c>
       <c r="H187" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I187" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C188" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D188" s="1">
         <v>44089</v>
@@ -7273,21 +7271,21 @@
         <v>7.2222222222222223</v>
       </c>
       <c r="H188" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I188" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C189" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D189" s="1">
         <v>44089</v>
@@ -7303,18 +7301,18 @@
         <v>10</v>
       </c>
       <c r="H189" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C190" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D190" s="1">
         <v>44089</v>
@@ -7330,21 +7328,21 @@
         <v>9.4444444444444446</v>
       </c>
       <c r="H190" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I190" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C191" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D191" s="1">
         <v>44089</v>
@@ -7360,18 +7358,18 @@
         <v>9.4444444444444446</v>
       </c>
       <c r="H191" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C192" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D192" s="1">
         <v>44089</v>
@@ -7387,21 +7385,21 @@
         <v>7.7777777777777777</v>
       </c>
       <c r="H192" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I192" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C193" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D193" s="1">
         <v>44089</v>
@@ -7417,21 +7415,21 @@
         <v>7.7777777777777777</v>
       </c>
       <c r="H193" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I193" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C194" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D194" s="1">
         <v>44089</v>
@@ -7447,21 +7445,21 @@
         <v>7.7777777777777777</v>
       </c>
       <c r="H194" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I194" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C195" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D195" s="1">
         <v>44089</v>
@@ -7477,21 +7475,21 @@
         <v>7.7777777777777777</v>
       </c>
       <c r="H195" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I195" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C196" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D196" s="1">
         <v>44089</v>
@@ -7507,21 +7505,21 @@
         <v>7.7777777777777777</v>
       </c>
       <c r="H196" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I196" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C197" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D197" s="1">
         <v>44089</v>
@@ -7537,21 +7535,21 @@
         <v>7.7777777777777777</v>
       </c>
       <c r="H197" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I197" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C198" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D198" s="1">
         <v>44090</v>
@@ -7567,18 +7565,18 @@
         <v>7.2222222222222223</v>
       </c>
       <c r="H198" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C199" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D199" s="1">
         <v>44090</v>
@@ -7594,21 +7592,21 @@
         <v>7.2222222222222223</v>
       </c>
       <c r="H199" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I199" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C200" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D200" s="1">
         <v>44090</v>
@@ -7624,21 +7622,21 @@
         <v>7.2222222222222223</v>
       </c>
       <c r="H200" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I200" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B201" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C201" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D201" s="1">
         <v>44090</v>
@@ -7654,21 +7652,21 @@
         <v>7.2222222222222223</v>
       </c>
       <c r="H201" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I201" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C202" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D202" s="1">
         <v>44090</v>
@@ -7684,21 +7682,21 @@
         <v>7.2222222222222223</v>
       </c>
       <c r="H202" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I202" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B203" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C203" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D203" s="1">
         <v>44090</v>
@@ -7714,21 +7712,21 @@
         <v>7.2222222222222223</v>
       </c>
       <c r="H203" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I203" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B204" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C204" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D204" s="1">
         <v>44090</v>
@@ -7744,18 +7742,18 @@
         <v>7.2222222222222223</v>
       </c>
       <c r="H204" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B205" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C205" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D205" s="1">
         <v>44090</v>
@@ -7771,21 +7769,21 @@
         <v>7.2222222222222223</v>
       </c>
       <c r="H205" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I205" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B206" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C206" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D206" s="1">
         <v>44090</v>
@@ -7801,21 +7799,21 @@
         <v>7.2222222222222223</v>
       </c>
       <c r="H206" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I206" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B207" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C207" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D207" s="1">
         <v>44090</v>
@@ -7831,21 +7829,21 @@
         <v>9.4444444444444446</v>
       </c>
       <c r="H207" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I207" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B208" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C208" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D208" s="1">
         <v>44090</v>
@@ -7861,18 +7859,18 @@
         <v>9.4444444444444446</v>
       </c>
       <c r="H208" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B209" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C209" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D209" s="1">
         <v>44090</v>
@@ -7888,18 +7886,18 @@
         <v>10</v>
       </c>
       <c r="H209" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B210" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C210" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D210" s="1">
         <v>44090</v>
@@ -7915,18 +7913,18 @@
         <v>10</v>
       </c>
       <c r="H210" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B211" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C211" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D211" s="1">
         <v>44090</v>
@@ -7942,18 +7940,18 @@
         <v>10</v>
       </c>
       <c r="H211" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B212" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C212" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D212" s="1">
         <v>44090</v>
@@ -7969,21 +7967,21 @@
         <v>8.8888888888888893</v>
       </c>
       <c r="H212" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I212" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B213" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C213" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D213" s="1">
         <v>44090</v>
@@ -7999,21 +7997,21 @@
         <v>8.8888888888888893</v>
       </c>
       <c r="H213" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I213" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B214" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C214" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D214" s="1">
         <v>44091</v>
@@ -8029,18 +8027,18 @@
         <v>6.1111111111111107</v>
       </c>
       <c r="H214" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B215" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C215" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D215" s="1">
         <v>44091</v>
@@ -8056,18 +8054,18 @@
         <v>7.7777777777777777</v>
       </c>
       <c r="H215" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B216" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C216" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D216" s="1">
         <v>44091</v>
@@ -8083,21 +8081,21 @@
         <v>7.2222222222222223</v>
       </c>
       <c r="H216" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I216" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B217" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C217" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D217" s="1">
         <v>44091</v>
@@ -8113,21 +8111,21 @@
         <v>7.2222222222222223</v>
       </c>
       <c r="H217" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I217" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B218" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C218" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D218" s="1">
         <v>44091</v>
@@ -8143,21 +8141,21 @@
         <v>7.2222222222222223</v>
       </c>
       <c r="H218" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I218" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B219" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C219" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D219" s="1">
         <v>44091</v>
@@ -8173,21 +8171,21 @@
         <v>7.2222222222222223</v>
       </c>
       <c r="H219" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I219" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B220" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C220" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D220" s="1">
         <v>44092</v>
@@ -8203,18 +8201,18 @@
         <v>7.2222222222222223</v>
       </c>
       <c r="H220" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B221" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C221" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D221" s="1">
         <v>44092</v>
@@ -8230,21 +8228,21 @@
         <v>6.6666666666666661</v>
       </c>
       <c r="H221" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I221" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B222" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C222" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D222" s="1">
         <v>44092</v>
@@ -8260,18 +8258,18 @@
         <v>6.6666666666666661</v>
       </c>
       <c r="H222" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B223" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C223" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D223" s="1">
         <v>44092</v>
@@ -8287,21 +8285,21 @@
         <v>6.6666666666666661</v>
       </c>
       <c r="H223" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I223" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B224" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C224" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D224" s="1">
         <v>44092</v>
@@ -8317,18 +8315,18 @@
         <v>6.6666666666666661</v>
       </c>
       <c r="H224" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B225" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C225" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D225" s="1">
         <v>44092</v>
@@ -8344,18 +8342,18 @@
         <v>7.2222222222222223</v>
       </c>
       <c r="H225" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B226" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C226" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D226" s="1">
         <v>44092</v>
@@ -8371,21 +8369,21 @@
         <v>7.2222222222222223</v>
       </c>
       <c r="H226" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I226" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B227" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C227" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D227" s="1">
         <v>44092</v>
@@ -8401,21 +8399,21 @@
         <v>7.2222222222222223</v>
       </c>
       <c r="H227" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I227" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B228" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C228" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D228" s="1">
         <v>44092</v>
@@ -8431,21 +8429,21 @@
         <v>7.2222222222222223</v>
       </c>
       <c r="H228" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I228" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B229" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C229" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D229" s="1">
         <v>44092</v>
@@ -8461,18 +8459,18 @@
         <v>7.2222222222222223</v>
       </c>
       <c r="H229" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B230" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C230" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D230" s="1">
         <v>44093</v>
@@ -8488,18 +8486,18 @@
         <v>6.1111111111111107</v>
       </c>
       <c r="H230" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B231" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C231" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D231" s="1">
         <v>44093</v>
@@ -8515,21 +8513,21 @@
         <v>6.1111111111111107</v>
       </c>
       <c r="H231" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I231" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B232" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C232" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D232" s="1">
         <v>44093</v>
@@ -8545,21 +8543,21 @@
         <v>6.1111111111111107</v>
       </c>
       <c r="H232" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I232" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B233" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C233" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D233" s="1">
         <v>44093</v>
@@ -8575,18 +8573,18 @@
         <v>6.1111111111111107</v>
       </c>
       <c r="H233" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B234" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C234" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D234" s="1">
         <v>44093</v>
@@ -8602,18 +8600,18 @@
         <v>6.1111111111111107</v>
       </c>
       <c r="H234" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B235" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C235" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D235" s="1">
         <v>44093</v>
@@ -8629,21 +8627,21 @@
         <v>6.1111111111111107</v>
       </c>
       <c r="H235" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I235" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B236" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C236" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D236" s="1">
         <v>44093</v>
@@ -8659,18 +8657,18 @@
         <v>6.1111111111111107</v>
       </c>
       <c r="H236" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B237" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C237" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D237" s="1">
         <v>44093</v>
@@ -8686,18 +8684,18 @@
         <v>7.2222222222222223</v>
       </c>
       <c r="H237" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B238" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C238" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D238" s="1">
         <v>44093</v>
@@ -8713,21 +8711,21 @@
         <v>7.2222222222222223</v>
       </c>
       <c r="H238" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I238" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B239" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C239" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D239" s="1">
         <v>44093</v>
@@ -8743,18 +8741,18 @@
         <v>7.2222222222222223</v>
       </c>
       <c r="H239" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B240" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C240" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D240" s="1">
         <v>44093</v>
@@ -8770,21 +8768,21 @@
         <v>5</v>
       </c>
       <c r="H240" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I240" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B241" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C241" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D241" s="1">
         <v>44093</v>
@@ -8800,21 +8798,21 @@
         <v>5</v>
       </c>
       <c r="H241" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I241" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B242" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C242" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D242" s="1">
         <v>44093</v>
@@ -8830,21 +8828,21 @@
         <v>4.4444444444444446</v>
       </c>
       <c r="H242" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I242" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B243" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C243" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D243" s="1">
         <v>44093</v>
@@ -8860,18 +8858,18 @@
         <v>4.4444444444444446</v>
       </c>
       <c r="H243" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B244" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C244" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D244" s="1">
         <v>44094</v>
@@ -8887,18 +8885,18 @@
         <v>4.4444444444444446</v>
       </c>
       <c r="H244" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B245" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C245" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D245" s="1">
         <v>44094</v>
@@ -8914,21 +8912,21 @@
         <v>5</v>
       </c>
       <c r="H245" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I245" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B246" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C246" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D246" s="1">
         <v>44094</v>
@@ -8944,21 +8942,21 @@
         <v>5</v>
       </c>
       <c r="H246" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I246" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B247" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C247" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D247" s="1">
         <v>44094</v>
@@ -8974,21 +8972,21 @@
         <v>4.4444444444444446</v>
       </c>
       <c r="H247" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I247" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B248" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C248" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D248" s="1">
         <v>44094</v>
@@ -9004,18 +9002,18 @@
         <v>4.4444444444444446</v>
       </c>
       <c r="H248" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B249" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C249" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D249" s="1">
         <v>44094</v>
@@ -9031,21 +9029,21 @@
         <v>5.5555555555555554</v>
       </c>
       <c r="H249" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I249" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B250" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C250" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D250" s="1">
         <v>44094</v>
@@ -9061,18 +9059,18 @@
         <v>5.5555555555555554</v>
       </c>
       <c r="H250" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B251" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C251" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D251" s="1">
         <v>44094</v>
@@ -9088,18 +9086,18 @@
         <v>5.5555555555555554</v>
       </c>
       <c r="H251" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B252" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C252" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D252" s="1">
         <v>44094</v>
@@ -9115,21 +9113,21 @@
         <v>5.5555555555555554</v>
       </c>
       <c r="H252" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I252" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B253" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C253" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D253" s="1">
         <v>44094</v>
@@ -9145,21 +9143,21 @@
         <v>5.5555555555555554</v>
       </c>
       <c r="H253" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I253" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B254" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C254" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D254" s="1">
         <v>44094</v>
@@ -9175,21 +9173,21 @@
         <v>5.5555555555555554</v>
       </c>
       <c r="H254" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I254" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B255" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C255" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D255" s="1">
         <v>44094</v>
@@ -9205,21 +9203,21 @@
         <v>5.5555555555555554</v>
       </c>
       <c r="H255" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I255" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B256" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C256" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D256" s="1">
         <v>44095</v>
@@ -9235,21 +9233,21 @@
         <v>5</v>
       </c>
       <c r="H256" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I256" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B257" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C257" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D257" s="1">
         <v>44095</v>
@@ -9265,18 +9263,18 @@
         <v>5</v>
       </c>
       <c r="H257" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B258" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C258" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D258" s="1">
         <v>44095</v>
@@ -9292,21 +9290,21 @@
         <v>5</v>
       </c>
       <c r="H258" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I258" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B259" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C259" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D259" s="1">
         <v>44095</v>
@@ -9322,18 +9320,18 @@
         <v>5</v>
       </c>
       <c r="H259" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B260" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C260" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D260" s="1">
         <v>44095</v>
@@ -9349,18 +9347,18 @@
         <v>5</v>
       </c>
       <c r="H260" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B261" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C261" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D261" s="1">
         <v>44095</v>
@@ -9376,18 +9374,18 @@
         <v>5</v>
       </c>
       <c r="H261" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B262" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C262" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D262" s="1">
         <v>44095</v>
@@ -9403,18 +9401,18 @@
         <v>5</v>
       </c>
       <c r="H262" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B263" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C263" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D263" s="1">
         <v>44095</v>
@@ -9430,18 +9428,18 @@
         <v>5.5555555555555554</v>
       </c>
       <c r="H263" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B264" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C264" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D264" s="1">
         <v>44096</v>
@@ -9457,18 +9455,18 @@
         <v>6.1111111111111107</v>
       </c>
       <c r="H264" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B265" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C265" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D265" s="1">
         <v>44096</v>
@@ -9484,21 +9482,21 @@
         <v>5.5555555555555554</v>
       </c>
       <c r="H265" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I265" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B266" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C266" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D266" s="1">
         <v>44096</v>
@@ -9514,18 +9512,18 @@
         <v>5.5555555555555554</v>
       </c>
       <c r="H266" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B267" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C267" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D267" s="1">
         <v>44096</v>
@@ -9541,21 +9539,21 @@
         <v>6.1111111111111107</v>
       </c>
       <c r="H267" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I267" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B268" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C268" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D268" s="1">
         <v>44096</v>
@@ -9571,21 +9569,21 @@
         <v>6.1111111111111107</v>
       </c>
       <c r="H268" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I268" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B269" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C269" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D269" s="1">
         <v>44096</v>
@@ -9601,18 +9599,18 @@
         <v>6.1111111111111107</v>
       </c>
       <c r="H269" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B270" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C270" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D270" s="1">
         <v>44096</v>
@@ -9628,21 +9626,21 @@
         <v>6.1111111111111107</v>
       </c>
       <c r="H270" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I270" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B271" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C271" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D271" s="1">
         <v>44096</v>
@@ -9658,21 +9656,21 @@
         <v>6.1111111111111107</v>
       </c>
       <c r="H271" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I271" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B272" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C272" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D272" s="1">
         <v>44096</v>
@@ -9688,21 +9686,21 @@
         <v>6.1111111111111107</v>
       </c>
       <c r="H272" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I272" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B273" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C273" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D273" s="1">
         <v>44096</v>
@@ -9718,21 +9716,21 @@
         <v>6.1111111111111107</v>
       </c>
       <c r="H273" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I273" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B274" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C274" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D274" s="1">
         <v>44096</v>
@@ -9748,21 +9746,21 @@
         <v>6.1111111111111107</v>
       </c>
       <c r="H274" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I274" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B275" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C275" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D275" s="1">
         <v>44096</v>
@@ -9778,21 +9776,21 @@
         <v>6.1111111111111107</v>
       </c>
       <c r="H275" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I275" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B276" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C276" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D276" s="1">
         <v>44096</v>
@@ -9808,21 +9806,21 @@
         <v>5.5555555555555554</v>
       </c>
       <c r="H276" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I276" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B277" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C277" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D277" s="1">
         <v>44096</v>
@@ -9838,18 +9836,18 @@
         <v>5.5555555555555554</v>
       </c>
       <c r="H277" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B278" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C278" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D278" s="1">
         <v>44096</v>
@@ -9865,21 +9863,21 @@
         <v>5</v>
       </c>
       <c r="H278" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I278" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B279" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C279" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D279" s="1">
         <v>44096</v>
@@ -9895,21 +9893,21 @@
         <v>5</v>
       </c>
       <c r="H279" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I279" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B280" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C280" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D280" s="1">
         <v>44096</v>
@@ -9925,21 +9923,21 @@
         <v>5</v>
       </c>
       <c r="H280" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I280" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B281" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C281" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D281" s="1">
         <v>44096</v>
@@ -9955,18 +9953,18 @@
         <v>5</v>
       </c>
       <c r="H281" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B282" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C282" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D282" s="1">
         <v>44136</v>
@@ -9982,18 +9980,18 @@
         <v>0.55555555555555558</v>
       </c>
       <c r="H282" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B283" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C283" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D283" s="1">
         <v>44136</v>
@@ -10009,18 +10007,18 @@
         <v>0</v>
       </c>
       <c r="H283" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B284" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C284" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D284" s="1">
         <v>44137</v>
@@ -10036,18 +10034,18 @@
         <v>1.6666666666666665</v>
       </c>
       <c r="H284" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B285" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C285" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D285" s="1">
         <v>44137</v>
@@ -10063,18 +10061,18 @@
         <v>2.2222222222222223</v>
       </c>
       <c r="H285" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B286" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C286" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D286" s="1">
         <v>44137</v>
@@ -10090,18 +10088,18 @@
         <v>2.2222222222222223</v>
       </c>
       <c r="H286" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B287" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C287" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D287" s="1">
         <v>44137</v>
@@ -10117,21 +10115,21 @@
         <v>2.7777777777777777</v>
       </c>
       <c r="H287" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I287" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B288" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C288" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D288" s="1">
         <v>44137</v>
@@ -10147,18 +10145,18 @@
         <v>2.7777777777777777</v>
       </c>
       <c r="H288" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B289" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C289" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D289" s="1">
         <v>44137</v>
@@ -10174,21 +10172,21 @@
         <v>2.7777777777777777</v>
       </c>
       <c r="H289" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I289" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B290" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C290" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D290" s="1">
         <v>44137</v>
@@ -10204,18 +10202,18 @@
         <v>2.7777777777777777</v>
       </c>
       <c r="H290" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B291" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C291" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D291" s="1">
         <v>44137</v>
@@ -10231,18 +10229,18 @@
         <v>3.8888888888888888</v>
       </c>
       <c r="H291" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B292" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C292" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D292" s="1">
         <v>44137</v>
@@ -10258,21 +10256,21 @@
         <v>3.8888888888888888</v>
       </c>
       <c r="H292" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I292" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B293" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C293" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D293" s="1">
         <v>44137</v>
@@ -10288,18 +10286,18 @@
         <v>3.8888888888888888</v>
       </c>
       <c r="H293" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B294" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C294" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D294" s="1">
         <v>44137</v>
@@ -10315,18 +10313,18 @@
         <v>3.8888888888888888</v>
       </c>
       <c r="H294" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B295" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C295" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D295" s="1">
         <v>44137</v>
@@ -10342,18 +10340,18 @@
         <v>3.8888888888888888</v>
       </c>
       <c r="H295" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B296" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C296" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D296" s="1">
         <v>44138</v>
@@ -10369,18 +10367,18 @@
         <v>3.333333333333333</v>
       </c>
       <c r="H296" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B297" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C297" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D297" s="1">
         <v>44138</v>
@@ -10396,21 +10394,21 @@
         <v>3.333333333333333</v>
       </c>
       <c r="H297" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I297" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B298" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C298" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D298" s="1">
         <v>44138</v>
@@ -10426,18 +10424,18 @@
         <v>3.333333333333333</v>
       </c>
       <c r="H298" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B299" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C299" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D299" s="1">
         <v>44138</v>
@@ -10453,21 +10451,21 @@
         <v>2.7777777777777777</v>
       </c>
       <c r="H299" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I299" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B300" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C300" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D300" s="1">
         <v>44138</v>
@@ -10483,18 +10481,18 @@
         <v>2.7777777777777777</v>
       </c>
       <c r="H300" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B301" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C301" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D301" s="1">
         <v>44138</v>
@@ -10510,18 +10508,18 @@
         <v>3.333333333333333</v>
       </c>
       <c r="H301" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B302" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C302" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D302" s="1">
         <v>44138</v>
@@ -10537,21 +10535,21 @@
         <v>2.2222222222222223</v>
       </c>
       <c r="H302" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I302" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B303" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C303" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D303" s="1">
         <v>44138</v>
@@ -10567,18 +10565,18 @@
         <v>2.2222222222222223</v>
       </c>
       <c r="H303" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B304" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C304" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D304" s="1">
         <v>44139</v>
@@ -10594,18 +10592,18 @@
         <v>2.2222222222222223</v>
       </c>
       <c r="H304" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B305" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C305" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D305" s="1">
         <v>44139</v>
@@ -10621,18 +10619,18 @@
         <v>1.1111111111111112</v>
       </c>
       <c r="H305" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B306" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C306" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D306" s="1">
         <v>44139</v>
@@ -10648,18 +10646,18 @@
         <v>1.1111111111111112</v>
       </c>
       <c r="H306" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B307" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C307" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D307" s="1">
         <v>44139</v>
@@ -10675,18 +10673,18 @@
         <v>1.1111111111111112</v>
       </c>
       <c r="H307" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B308" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C308" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D308" s="1">
         <v>44140</v>
@@ -10702,18 +10700,18 @@
         <v>0.55555555555555558</v>
       </c>
       <c r="H308" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B309" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C309" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D309" s="1">
         <v>44140</v>
@@ -10729,18 +10727,18 @@
         <v>1.6666666666666665</v>
       </c>
       <c r="H309" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B310" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C310" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D310" s="1">
         <v>44141</v>
@@ -10756,18 +10754,18 @@
         <v>2.7777777777777777</v>
       </c>
       <c r="H310" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B311" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C311" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D311" s="1">
         <v>44141</v>
@@ -10783,21 +10781,21 @@
         <v>2.7777777777777777</v>
       </c>
       <c r="H311" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I311" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B312" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C312" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D312" s="1">
         <v>44141</v>
@@ -10813,18 +10811,18 @@
         <v>2.7777777777777777</v>
       </c>
       <c r="H312" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B313" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C313" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D313" s="1">
         <v>44141</v>
@@ -10840,21 +10838,21 @@
         <v>2.7777777777777777</v>
       </c>
       <c r="H313" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I313" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B314" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C314" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D314" s="1">
         <v>44141</v>
@@ -10870,21 +10868,21 @@
         <v>2.7777777777777777</v>
       </c>
       <c r="H314" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I314" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B315" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C315" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D315" s="1">
         <v>44141</v>
@@ -10900,21 +10898,21 @@
         <v>2.7777777777777777</v>
       </c>
       <c r="H315" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I315" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B316" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C316" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D316" s="1">
         <v>44141</v>
@@ -10930,18 +10928,18 @@
         <v>2.7777777777777777</v>
       </c>
       <c r="H316" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B317" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C317" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D317" s="1">
         <v>44141</v>
@@ -10957,21 +10955,21 @@
         <v>2.7777777777777777</v>
       </c>
       <c r="H317" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I317" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B318" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C318" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D318" s="1">
         <v>44141</v>
@@ -10987,18 +10985,18 @@
         <v>2.7777777777777777</v>
       </c>
       <c r="H318" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B319" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C319" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D319" s="1">
         <v>44141</v>
@@ -11014,21 +11012,21 @@
         <v>2.7777777777777777</v>
       </c>
       <c r="H319" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I319" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B320" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C320" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D320" s="1">
         <v>44141</v>
@@ -11044,18 +11042,18 @@
         <v>2.7777777777777777</v>
       </c>
       <c r="H320" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B321" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C321" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D321" s="1">
         <v>44141</v>
@@ -11071,21 +11069,21 @@
         <v>2.7777777777777777</v>
       </c>
       <c r="H321" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I321" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B322" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C322" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D322" s="1">
         <v>44141</v>
@@ -11101,18 +11099,18 @@
         <v>2.7777777777777777</v>
       </c>
       <c r="H322" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B323" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C323" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D323" s="1">
         <v>44141</v>
@@ -11128,18 +11126,18 @@
         <v>2.7777777777777777</v>
       </c>
       <c r="H323" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B324" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C324" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D324" s="1">
         <v>44141</v>
@@ -11155,18 +11153,18 @@
         <v>2.7777777777777777</v>
       </c>
       <c r="H324" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B325" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C325" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D325" s="1">
         <v>44141</v>
@@ -11182,18 +11180,18 @@
         <v>2.2222222222222223</v>
       </c>
       <c r="H325" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B326" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C326" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D326" s="1">
         <v>44142</v>
@@ -11209,18 +11207,18 @@
         <v>2.7777777777777777</v>
       </c>
       <c r="H326" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B327" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C327" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D327" s="1">
         <v>44142</v>
@@ -11236,18 +11234,18 @@
         <v>1.6666666666666665</v>
       </c>
       <c r="H327" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B328" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C328" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D328" s="1">
         <v>44143</v>
@@ -11263,18 +11261,18 @@
         <v>1.1111111111111112</v>
       </c>
       <c r="H328" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B329" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C329" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D329" s="1">
         <v>44143</v>
@@ -11290,18 +11288,18 @@
         <v>0.55555555555555558</v>
       </c>
       <c r="H329" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B330" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C330" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D330" s="1">
         <v>44144</v>
@@ -11317,18 +11315,18 @@
         <v>0.55555555555555558</v>
       </c>
       <c r="H330" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B331" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C331" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D331" s="1">
         <v>44144</v>
@@ -11344,18 +11342,18 @@
         <v>1.1111111111111112</v>
       </c>
       <c r="H331" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B332" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C332" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D332" s="1">
         <v>44145</v>
@@ -11371,18 +11369,18 @@
         <v>1.1111111111111112</v>
       </c>
       <c r="H332" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B333" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C333" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D333" s="1">
         <v>44145</v>
@@ -11398,18 +11396,18 @@
         <v>1.1111111111111112</v>
       </c>
       <c r="H333" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B334" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C334" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D334" s="1">
         <v>44146</v>
@@ -11425,21 +11423,21 @@
         <v>0.55555555555555558</v>
       </c>
       <c r="H334" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I334" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B335" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C335" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D335" s="1">
         <v>44146</v>
@@ -11455,21 +11453,21 @@
         <v>0.55555555555555558</v>
       </c>
       <c r="H335" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I335" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B336" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C336" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D336" s="1">
         <v>44146</v>
@@ -11485,18 +11483,18 @@
         <v>0.55555555555555558</v>
       </c>
       <c r="H336" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B337" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C337" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D337" s="1">
         <v>44146</v>
@@ -11512,18 +11510,18 @@
         <v>-0.55555555555555558</v>
       </c>
       <c r="H337" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B338" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C338" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D338" s="1">
         <v>44147</v>
@@ -11539,18 +11537,18 @@
         <v>0</v>
       </c>
       <c r="H338" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B339" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C339" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D339" s="1">
         <v>44147</v>
@@ -11566,18 +11564,18 @@
         <v>0</v>
       </c>
       <c r="H339" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B340" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C340" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D340" s="1">
         <v>44148</v>
@@ -11593,18 +11591,18 @@
         <v>0.55555555555555558</v>
       </c>
       <c r="H340" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B341" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C341" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D341" s="1">
         <v>44148</v>
@@ -11620,7 +11618,7 @@
         <v>0.55555555555555558</v>
       </c>
       <c r="H341" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
